--- a/Normalizsyon Uygulaması-Ödev1.xlsx
+++ b/Normalizsyon Uygulaması-Ödev1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin.bagcuvan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5776CF4-7888-4C9F-B8DB-35737CED5AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690416ED-3651-4CD7-9D6D-50DE17181109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="39">
   <si>
     <t>Ev</t>
   </si>
@@ -144,20 +144,14 @@
     <t>MustakilID</t>
   </si>
   <si>
-    <t>EVID</t>
-  </si>
-  <si>
-    <t>MALZEMEID</t>
-  </si>
-  <si>
-    <t>FİYAT</t>
+    <t>3NF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +168,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,18 +187,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -423,9 +456,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -433,13 +464,22 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -450,27 +490,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,67 +983,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB06AE0-7172-4BD9-B8E9-1D0EC3E79C07}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1279,6 +1341,471 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1999</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="6">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,119 +1814,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA3E75-9485-4304-9CB1-6818CDFFAEEF}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>1999</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1">
-        <v>55</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1414,33 +1902,18 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1">
-        <v>100</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1455,27 +1928,18 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1">
-        <v>105</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1490,33 +1954,18 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1">
-        <v>70</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="1">
-        <v>110</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1531,33 +1980,18 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="H6" s="44">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="I6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1">
-        <v>100</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1572,109 +2006,61 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="1">
-        <v>101</v>
-      </c>
-      <c r="N7" s="1">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1">
-        <v>54</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="1">
-        <v>98</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1703,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1732,7 +2118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1761,7 +2147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1790,7 +2176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -2116,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81F436A-E466-42F3-98DB-71A1A5932CC0}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,8 +2513,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -2139,847 +2527,381 @@
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="H2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>4</v>
+      </c>
+      <c r="B9" s="39">
+        <v>3</v>
+      </c>
+      <c r="C9" s="40">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2009</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>4</v>
+      </c>
+      <c r="B10" s="39">
+        <v>5</v>
+      </c>
+      <c r="C10" s="40">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2</v>
+      </c>
+      <c r="C11" s="31">
+        <v>50</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="F11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>5</v>
+      </c>
+      <c r="B12" s="30">
+        <v>5</v>
+      </c>
+      <c r="C12" s="31">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>6</v>
+      </c>
+      <c r="B13" s="42">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>6</v>
+      </c>
+      <c r="B14" s="42">
+        <v>4</v>
+      </c>
+      <c r="C14" s="43">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42">
+        <v>5</v>
+      </c>
+      <c r="C15" s="43">
+        <v>108</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1999</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="9">
-        <v>20</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1</v>
-      </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="34">
+        <v>54</v>
+      </c>
+      <c r="E16" s="44">
+        <v>5</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3">
-        <v>55</v>
-      </c>
-      <c r="K3" s="20">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21">
-        <v>2</v>
-      </c>
-      <c r="M3" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3">
-        <v>77</v>
-      </c>
-      <c r="K4" s="20">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21">
-        <v>3</v>
-      </c>
-      <c r="M4" s="22">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>25</v>
-      </c>
-      <c r="K5" s="20">
-        <v>2</v>
-      </c>
-      <c r="L5" s="21">
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3">
-        <v>100</v>
-      </c>
-      <c r="K6" s="20">
-        <v>2</v>
-      </c>
-      <c r="L6" s="21">
-        <v>4</v>
-      </c>
-      <c r="M6" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3">
-        <v>105</v>
-      </c>
-      <c r="K7" s="20">
-        <v>3</v>
-      </c>
-      <c r="L7" s="21">
-        <v>4</v>
-      </c>
-      <c r="M7" s="22">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3">
-        <v>70</v>
-      </c>
-      <c r="K8" s="20">
-        <v>4</v>
-      </c>
-      <c r="L8" s="21">
-        <v>3</v>
-      </c>
-      <c r="M8" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3">
-        <v>110</v>
-      </c>
-      <c r="K9" s="20">
-        <v>4</v>
-      </c>
-      <c r="L9" s="21">
-        <v>5</v>
-      </c>
-      <c r="M9" s="22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20">
-        <v>5</v>
-      </c>
-      <c r="L10" s="21">
-        <v>2</v>
-      </c>
-      <c r="M10" s="22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="K11" s="20">
-        <v>5</v>
-      </c>
-      <c r="L11" s="21">
-        <v>5</v>
-      </c>
-      <c r="M11" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3">
-        <v>27</v>
-      </c>
-      <c r="K12" s="20">
-        <v>6</v>
-      </c>
-      <c r="L12" s="21">
-        <v>1</v>
-      </c>
-      <c r="M12" s="22">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3">
-        <v>101</v>
-      </c>
-      <c r="K13" s="20">
-        <v>6</v>
-      </c>
-      <c r="L13" s="21">
-        <v>4</v>
-      </c>
-      <c r="M13" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="3">
-        <v>108</v>
-      </c>
-      <c r="K14" s="20">
-        <v>6</v>
-      </c>
-      <c r="L14" s="21">
-        <v>5</v>
-      </c>
-      <c r="M14" s="22">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3">
-        <v>54</v>
-      </c>
-      <c r="K15" s="20">
-        <v>7</v>
-      </c>
-      <c r="L15" s="21">
-        <v>2</v>
-      </c>
-      <c r="M15" s="22">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2009</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="B17" s="36">
+        <v>4</v>
+      </c>
+      <c r="C17" s="37">
         <v>98</v>
       </c>
-      <c r="K16" s="23">
-        <v>7</v>
-      </c>
-      <c r="L16" s="24">
-        <v>4</v>
-      </c>
-      <c r="M16" s="25">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1999</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2004</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2010</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="2">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="2">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2019</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="4">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2009</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100C3C79AF43F6BCB4EA1D48D2381B8E5FF" ma:contentTypeVersion="14" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="1ca9a68847757b9d12033cde4d98eb1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="125dafef-7b40-4a26-ae7c-9a08aacd1d75" xmlns:ns3="af274c66-0de8-42c6-9f5a-8e7e15785180" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a23aa1e7b569d3a685e77c4e0a0bf438" ns2:_="" ns3:_="">
     <xsd:import namespace="125dafef-7b40-4a26-ae7c-9a08aacd1d75"/>
@@ -3208,15 +3130,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{825DFD37-9DC3-4016-B129-656377B30B30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B57A7015-37E6-4B14-B14B-1F10A844A4AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3233,4 +3156,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{825DFD37-9DC3-4016-B129-656377B30B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>